--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Argentina_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Argentina_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G297"/>
+  <dimension ref="A1:G300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7864,15 +7864,90 @@
         <v>208.98</v>
       </c>
       <c r="D297" t="n">
-        <v>213.82</v>
+        <v>222.64</v>
       </c>
       <c r="E297" t="n">
         <v>208.775</v>
       </c>
       <c r="F297" t="n">
-        <v>213.76</v>
+        <v>222.64</v>
       </c>
       <c r="G297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>45047.33333333334</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDARS</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>222.64</v>
+      </c>
+      <c r="D298" t="n">
+        <v>239.47</v>
+      </c>
+      <c r="E298" t="n">
+        <v>222.64</v>
+      </c>
+      <c r="F298" t="n">
+        <v>239.47</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>45078.33333333334</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDARS</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>239.47</v>
+      </c>
+      <c r="D299" t="n">
+        <v>256.72</v>
+      </c>
+      <c r="E299" t="n">
+        <v>239.215</v>
+      </c>
+      <c r="F299" t="n">
+        <v>256.7</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
+        <v>45110.33333333334</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDARS</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>256.7</v>
+      </c>
+      <c r="D300" t="n">
+        <v>261.02</v>
+      </c>
+      <c r="E300" t="n">
+        <v>256.7</v>
+      </c>
+      <c r="F300" t="n">
+        <v>260.95</v>
+      </c>
+      <c r="G300" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Argentina_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Argentina_FX.xlsx
@@ -7939,13 +7939,13 @@
         <v>256.7</v>
       </c>
       <c r="D300" t="n">
-        <v>261.02</v>
+        <v>265.19</v>
       </c>
       <c r="E300" t="n">
         <v>256.7</v>
       </c>
       <c r="F300" t="n">
-        <v>260.95</v>
+        <v>265</v>
       </c>
       <c r="G300" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Argentina_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Argentina_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G300"/>
+  <dimension ref="A1:G301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,7 +653,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>36251.33333333334</v>
+        <v>36251.375</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>36770.375</v>
+        <v>36770.33333333334</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>37347.33333333334</v>
+        <v>37347.375</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>37712.33333333334</v>
+        <v>37712.375</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>38078.33333333334</v>
+        <v>38078.375</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>38443.33333333334</v>
+        <v>38443.375</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>38628.33333333334</v>
+        <v>38628.375</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>38992.33333333334</v>
+        <v>38992.375</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -7939,15 +7939,40 @@
         <v>256.7</v>
       </c>
       <c r="D300" t="n">
-        <v>265.19</v>
+        <v>275.27</v>
       </c>
       <c r="E300" t="n">
         <v>256.7</v>
       </c>
       <c r="F300" t="n">
-        <v>265</v>
+        <v>275.25</v>
       </c>
       <c r="G300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>45139.33333333334</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDARS</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>275.25</v>
+      </c>
+      <c r="D301" t="n">
+        <v>279.35</v>
+      </c>
+      <c r="E301" t="n">
+        <v>275.25</v>
+      </c>
+      <c r="F301" t="n">
+        <v>279.25</v>
+      </c>
+      <c r="G301" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Argentina_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Argentina_FX.xlsx
@@ -653,7 +653,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>36251.375</v>
+        <v>36251.33333333334</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>36770.33333333334</v>
+        <v>36770.375</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>37347.375</v>
+        <v>37347.33333333334</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>37712.375</v>
+        <v>37712.33333333334</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>38078.375</v>
+        <v>38078.33333333334</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>38443.375</v>
+        <v>38443.33333333334</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>38628.375</v>
+        <v>38628.33333333334</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>38992.375</v>
+        <v>38992.33333333334</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -7964,13 +7964,13 @@
         <v>275.25</v>
       </c>
       <c r="D301" t="n">
-        <v>279.35</v>
+        <v>350.02</v>
       </c>
       <c r="E301" t="n">
         <v>275.25</v>
       </c>
       <c r="F301" t="n">
-        <v>279.25</v>
+        <v>349.95</v>
       </c>
       <c r="G301" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Argentina_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Argentina_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G301"/>
+  <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7976,6 +7976,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>45170.33333333334</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDARS</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>349.95</v>
+      </c>
+      <c r="D302" t="n">
+        <v>350.05</v>
+      </c>
+      <c r="E302" t="n">
+        <v>349.605</v>
+      </c>
+      <c r="F302" t="n">
+        <v>350</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>45201.375</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDARS</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>350</v>
+      </c>
+      <c r="D303" t="n">
+        <v>350.07</v>
+      </c>
+      <c r="E303" t="n">
+        <v>349.6</v>
+      </c>
+      <c r="F303" t="n">
+        <v>349.95</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>45231.375</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDARS</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>349.95</v>
+      </c>
+      <c r="D304" t="n">
+        <v>350.02</v>
+      </c>
+      <c r="E304" t="n">
+        <v>349.61</v>
+      </c>
+      <c r="F304" t="n">
+        <v>349.97</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Argentina_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Argentina_FX.xlsx
@@ -8039,13 +8039,13 @@
         <v>349.95</v>
       </c>
       <c r="D304" t="n">
-        <v>350.02</v>
+        <v>354</v>
       </c>
       <c r="E304" t="n">
         <v>349.61</v>
       </c>
       <c r="F304" t="n">
-        <v>349.97</v>
+        <v>353.95</v>
       </c>
       <c r="G304" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Argentina_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Argentina_FX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G304"/>
+  <dimension ref="A1:G305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7387,15 +7387,38 @@
         <v>349.95</v>
       </c>
       <c r="D304">
-        <v>356.07</v>
+        <v>360.57</v>
       </c>
       <c r="E304">
         <v>349.61</v>
       </c>
       <c r="F304">
-        <v>355.97</v>
+        <v>360.45</v>
       </c>
       <c r="G304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="2">
+        <v>45261.375</v>
+      </c>
+      <c r="B305" t="s">
+        <v>7</v>
+      </c>
+      <c r="C305">
+        <v>360.45</v>
+      </c>
+      <c r="D305">
+        <v>363.05</v>
+      </c>
+      <c r="E305">
+        <v>360.45</v>
+      </c>
+      <c r="F305">
+        <v>363.04</v>
+      </c>
+      <c r="G305">
         <v>0</v>
       </c>
     </row>
